--- a/Demo_files/teacherDetails_fras.xlsx
+++ b/Demo_files/teacherDetails_fras.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TechNo(D)\Projects\Face Recognition\FRAS\Demo_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D85129-2DAF-40E5-8EC6-96595C7AA382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DB6D68-2C2D-4B74-9A69-69E62DE1211E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,78 +46,18 @@
     <t>Subjects</t>
   </si>
   <si>
-    <t>Dr. Naveen Choudhary</t>
-  </si>
-  <si>
-    <t>navC@example.com</t>
-  </si>
-  <si>
     <t>7654320100</t>
   </si>
   <si>
-    <t>Kalpana Jain</t>
-  </si>
-  <si>
-    <t>kalJain@example.com</t>
-  </si>
-  <si>
     <t>1234567890</t>
   </si>
   <si>
-    <t>Kul@example.com</t>
-  </si>
-  <si>
-    <t>Pallavi Joshi</t>
-  </si>
-  <si>
-    <t>pal@example.com</t>
-  </si>
-  <si>
-    <t>Daulat Chauhan</t>
-  </si>
-  <si>
-    <t>dau@example.com</t>
-  </si>
-  <si>
-    <t>Bhumika singh</t>
-  </si>
-  <si>
-    <t>bhumi@example.com</t>
-  </si>
-  <si>
-    <t>anu@example.com</t>
-  </si>
-  <si>
-    <t>Palak Jain</t>
-  </si>
-  <si>
-    <t>palak@example.com</t>
-  </si>
-  <si>
     <t>DLD(CS242)</t>
   </si>
   <si>
-    <t>Kirti Pursvani</t>
-  </si>
-  <si>
-    <t>kirti@example.com</t>
-  </si>
-  <si>
-    <t>Aakansha Joshi</t>
-  </si>
-  <si>
     <t>1234567891</t>
   </si>
   <si>
-    <t>aakansha@example.com</t>
-  </si>
-  <si>
-    <t>Nikita Sharma</t>
-  </si>
-  <si>
-    <t>nikita@example.com</t>
-  </si>
-  <si>
     <t>Human Values(BS232)</t>
   </si>
   <si>
@@ -127,48 +67,15 @@
     <t>Electrical Measurmemt &amp; Instruments(EE232)</t>
   </si>
   <si>
-    <t xml:space="preserve">EE Teacher </t>
-  </si>
-  <si>
-    <t>ee@example.com</t>
-  </si>
-  <si>
-    <t>EC Teacher</t>
-  </si>
-  <si>
-    <t>ec@example.com</t>
-  </si>
-  <si>
     <t>Analog Electronics(EC234), Pulse &amp; digital wave shapping(EC244)</t>
   </si>
   <si>
-    <t>Anshita Dharmawat</t>
-  </si>
-  <si>
-    <t>Kuldeep Derashri</t>
-  </si>
-  <si>
-    <t>Jyoti Chouhan</t>
-  </si>
-  <si>
-    <t>jyoti@example.com</t>
-  </si>
-  <si>
     <t>Java(CS248)</t>
   </si>
   <si>
-    <t>Garima Jain</t>
-  </si>
-  <si>
-    <t>Shuruti Gupta</t>
-  </si>
-  <si>
     <t>Communication Systems(EC243)</t>
   </si>
   <si>
-    <t>garima@example.com</t>
-  </si>
-  <si>
     <t>OS(CS361), Object Oriented Programming with C++(CS235)</t>
   </si>
   <si>
@@ -196,7 +103,100 @@
     <t>ML(CS474), DBMS(CS351), IT Workshop(CS364)</t>
   </si>
   <si>
-    <t>shruti@example.com</t>
+    <t>Teacher1</t>
+  </si>
+  <si>
+    <t>Teacher2</t>
+  </si>
+  <si>
+    <t>Teacher3</t>
+  </si>
+  <si>
+    <t>Teacher4</t>
+  </si>
+  <si>
+    <t>Teacher5</t>
+  </si>
+  <si>
+    <t>Teacher6</t>
+  </si>
+  <si>
+    <t>Teacher7</t>
+  </si>
+  <si>
+    <t>Teacher8</t>
+  </si>
+  <si>
+    <t>Teacher9</t>
+  </si>
+  <si>
+    <t>Teacher10</t>
+  </si>
+  <si>
+    <t>Teacher11</t>
+  </si>
+  <si>
+    <t>Teacher12</t>
+  </si>
+  <si>
+    <t>Teacher13</t>
+  </si>
+  <si>
+    <t>Teacher14</t>
+  </si>
+  <si>
+    <t>Teacher15</t>
+  </si>
+  <si>
+    <t>Teacher16</t>
+  </si>
+  <si>
+    <t>teacher1@example.com</t>
+  </si>
+  <si>
+    <t>teacher16@example.com</t>
+  </si>
+  <si>
+    <t>teacher15@example.com</t>
+  </si>
+  <si>
+    <t>teacher14@example.com</t>
+  </si>
+  <si>
+    <t>teacher13@example.com</t>
+  </si>
+  <si>
+    <t>teacher12@example.com</t>
+  </si>
+  <si>
+    <t>teacher11@example.com</t>
+  </si>
+  <si>
+    <t>teacher10@example.com</t>
+  </si>
+  <si>
+    <t>teacher9@example.com</t>
+  </si>
+  <si>
+    <t>teacher8@example.com</t>
+  </si>
+  <si>
+    <t>teacher7@example.com</t>
+  </si>
+  <si>
+    <t>teacher6@example.com</t>
+  </si>
+  <si>
+    <t>teacher5@example.com</t>
+  </si>
+  <si>
+    <t>teacher4@example.com</t>
+  </si>
+  <si>
+    <t>teacher3@example.com</t>
+  </si>
+  <si>
+    <t>teacher2@example.com</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -670,287 +670,287 @@
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>11</v>
+      <c r="B6" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C6" s="10"/>
-      <c r="D6" s="11" t="s">
-        <v>12</v>
+      <c r="D6" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>41</v>
+      <c r="B7" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C7" s="10"/>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
+      <c r="D7" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>45</v>
+      <c r="B8" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="17" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>15</v>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="10"/>
-      <c r="D9" s="11" t="s">
-        <v>16</v>
+      <c r="D9" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>17</v>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="11" t="s">
-        <v>18</v>
+      <c r="D10" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C11" s="10"/>
-      <c r="D11" s="11" t="s">
-        <v>20</v>
+      <c r="D11" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="E11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>40</v>
+      <c r="B12" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="11" t="s">
-        <v>21</v>
+      <c r="D12" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>22</v>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="11" t="s">
-        <v>23</v>
+      <c r="D13" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>27</v>
+      <c r="B15" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="17" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>30</v>
+      <c r="B16" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C16" s="10"/>
-      <c r="D16" s="11" t="s">
-        <v>31</v>
+      <c r="D16" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="12">
         <v>1234567891</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>35</v>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>36</v>
+      <c r="D17" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="12">
         <v>1234567890</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>14</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>37</v>
+      <c r="B18" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="11" t="s">
-        <v>38</v>
+      <c r="D18" s="17" t="s">
+        <v>46</v>
       </c>
       <c r="E18" s="12">
         <v>1234567890</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>15</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>42</v>
+      <c r="B19" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="11" t="s">
-        <v>43</v>
+      <c r="D19" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="E19" s="12">
         <v>1234567788</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>16</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>46</v>
+      <c r="B20" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="E20" s="12">
         <v>9876543210</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -968,13 +968,23 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{1F3A97C8-957D-4C5E-B212-7DC88E5D0310}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{C9C3FBCD-814B-4B8B-B540-15BAE1CC54EB}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{1DB9FCB6-35A0-4CE1-A807-6CEECBE52ADE}"/>
-    <hyperlink ref="D18" r:id="rId4" xr:uid="{1C303C06-74D8-42DA-9681-C4E4C51A465E}"/>
-    <hyperlink ref="D19" r:id="rId5" xr:uid="{4DCC7D04-4912-435A-84E7-FAC61DD7EE90}"/>
-    <hyperlink ref="D20" r:id="rId6" xr:uid="{49C3E4FC-EBB6-428B-86AD-16070537528B}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{75D843A7-9563-4F57-959F-B797A39B6B89}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{E8DF167A-E0A8-4CE9-BDBB-7527FACA3136}"/>
+    <hyperlink ref="D6:D20" r:id="rId2" display="teacher1@example.com" xr:uid="{744164A5-0596-41A6-B88E-24DA61852076}"/>
+    <hyperlink ref="D20" r:id="rId3" xr:uid="{15978D23-B5E1-49BA-B111-0F1BA9923D80}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{7F3CD743-AEB3-4557-81ED-C229584F3538}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{F8761BA3-3736-4AAC-8C97-2D006D4AB2C8}"/>
+    <hyperlink ref="D17" r:id="rId6" xr:uid="{4BE227CF-14E9-4B69-A72D-FADAACAF53AA}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{B72C01C2-C249-48A7-A260-DB8F27C9DEE0}"/>
+    <hyperlink ref="D15" r:id="rId8" xr:uid="{DDEE23B6-7CC7-4AF5-82C7-79CED44B3115}"/>
+    <hyperlink ref="D14" r:id="rId9" xr:uid="{8870FA8E-7B6B-46B0-9C86-28081B3431EA}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{17AA7D12-ED67-4B58-8B26-5878D651E677}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{3C915A64-88C6-4813-BC48-1EFD959C8C40}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{B8CB1988-D452-4C83-8EEA-648264C382A5}"/>
+    <hyperlink ref="D10" r:id="rId13" xr:uid="{C33ECBCF-D86B-4F97-AE36-2003B642D22B}"/>
+    <hyperlink ref="D9" r:id="rId14" xr:uid="{424DB6D4-5219-40B0-9A14-3D21778EEB90}"/>
+    <hyperlink ref="D8" r:id="rId15" xr:uid="{25F28AC0-5AB5-4629-92B1-D69F800034B2}"/>
+    <hyperlink ref="D7" r:id="rId16" xr:uid="{58A55038-F647-4240-9C29-6751F2BB316A}"/>
+    <hyperlink ref="D6" r:id="rId17" xr:uid="{7505F07E-6A9F-49D3-AF49-CDEFDB08C9F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
